--- a/The Battle Cats_TC.xlsx
+++ b/The Battle Cats_TC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\이력서 및 포트폴리오\TC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8B520C-041A-4781-83DC-BFD475E51763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA7EE7-0B19-4658-A331-D81606A6B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="996" windowWidth="15768" windowHeight="9996" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>냥코 대전쟁 테스트 케이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -650,13 +650,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +721,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,6 +750,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,9 +784,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -793,7 +824,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -899,7 +930,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1041,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1051,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C399DC24-7DCE-4FAA-9CB5-5462B70B7A25}">
   <dimension ref="B2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107:K107"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1067,12 +1098,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -1119,7 +1150,7 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1132,7 +1163,7 @@
       <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1174,7 @@
       <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1185,7 @@
       <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1196,7 @@
       <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1181,7 +1212,7 @@
       <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1192,7 +1223,7 @@
       <c r="B14" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1234,7 @@
       <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1245,7 @@
       <c r="B16" s="8">
         <v>9</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1256,7 @@
       <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1267,7 @@
       <c r="B18" s="8">
         <v>11</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1278,7 @@
       <c r="B19" s="8">
         <v>12</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1289,7 @@
       <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="13" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1300,7 @@
       <c r="B21" s="8">
         <v>14</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
@@ -1277,11 +1308,13 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="8">
+      <c r="B22" s="30">
         <v>15</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="5"/>
@@ -1291,7 +1324,7 @@
       <c r="B23" s="8">
         <v>16</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="13" t="s">
         <v>31</v>
       </c>
@@ -1302,7 +1335,7 @@
       <c r="B24" s="8">
         <v>17</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="13" t="s">
         <v>32</v>
       </c>
@@ -1313,7 +1346,7 @@
       <c r="B25" s="8">
         <v>18</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1324,7 +1357,7 @@
       <c r="B26" s="8">
         <v>19</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1335,7 +1368,7 @@
       <c r="B27" s="8">
         <v>20</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1379,7 @@
       <c r="B28" s="8">
         <v>21</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1390,7 @@
       <c r="B29" s="8">
         <v>22</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1401,7 @@
       <c r="B30" s="8">
         <v>23</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="13" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1412,7 @@
       <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="13" t="s">
         <v>88</v>
       </c>
@@ -1390,7 +1423,7 @@
       <c r="B32" s="8">
         <v>25</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="13" t="s">
         <v>89</v>
       </c>
@@ -1401,7 +1434,7 @@
       <c r="B33" s="8">
         <v>26</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1412,7 +1445,7 @@
       <c r="B34" s="8">
         <v>27</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -1425,7 +1458,7 @@
       <c r="B35" s="8">
         <v>28</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="13" t="s">
         <v>34</v>
       </c>
@@ -1436,7 +1469,7 @@
       <c r="B36" s="8">
         <v>29</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="13" t="s">
         <v>35</v>
       </c>
@@ -1447,7 +1480,7 @@
       <c r="B37" s="8">
         <v>30</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="13" t="s">
         <v>84</v>
       </c>
@@ -1458,7 +1491,7 @@
       <c r="B38" s="8">
         <v>31</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="13" t="s">
         <v>50</v>
       </c>
@@ -1469,7 +1502,7 @@
       <c r="B39" s="8">
         <v>32</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="13" t="s">
         <v>36</v>
       </c>
@@ -1480,7 +1513,7 @@
       <c r="B40" s="8">
         <v>33</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="13" t="s">
         <v>38</v>
       </c>
@@ -1491,7 +1524,7 @@
       <c r="B41" s="8">
         <v>34</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -1504,7 +1537,7 @@
       <c r="B42" s="8">
         <v>35</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="13" t="s">
         <v>43</v>
       </c>
@@ -1515,7 +1548,7 @@
       <c r="B43" s="8">
         <v>36</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="13" t="s">
         <v>41</v>
       </c>
@@ -1526,7 +1559,7 @@
       <c r="B44" s="8">
         <v>37</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="13" t="s">
         <v>44</v>
       </c>
@@ -1537,7 +1570,7 @@
       <c r="B45" s="8">
         <v>38</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="13" t="s">
         <v>47</v>
       </c>
@@ -1548,7 +1581,7 @@
       <c r="B46" s="8">
         <v>39</v>
       </c>
-      <c r="C46" s="20"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="13" t="s">
         <v>42</v>
       </c>
@@ -1559,7 +1592,7 @@
       <c r="B47" s="8">
         <v>40</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="13" t="s">
         <v>45</v>
       </c>
@@ -1570,7 +1603,7 @@
       <c r="B48" s="8">
         <v>41</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1581,7 +1614,7 @@
       <c r="B49" s="8">
         <v>42</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -1594,7 +1627,7 @@
       <c r="B50" s="8">
         <v>43</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="13" t="s">
         <v>51</v>
       </c>
@@ -1605,7 +1638,7 @@
       <c r="B51" s="8">
         <v>44</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="13" t="s">
         <v>52</v>
       </c>
@@ -1616,7 +1649,7 @@
       <c r="B52" s="8">
         <v>45</v>
       </c>
-      <c r="C52" s="20"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="13" t="s">
         <v>53</v>
       </c>
@@ -1627,7 +1660,7 @@
       <c r="B53" s="8">
         <v>46</v>
       </c>
-      <c r="C53" s="20"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="13" t="s">
         <v>55</v>
       </c>
@@ -1638,7 +1671,7 @@
       <c r="B54" s="8">
         <v>47</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="13" t="s">
         <v>54</v>
       </c>
@@ -1649,7 +1682,7 @@
       <c r="B55" s="8">
         <v>48</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="13" t="s">
         <v>62</v>
       </c>
@@ -1660,7 +1693,7 @@
       <c r="B56" s="8">
         <v>49</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -1673,7 +1706,7 @@
       <c r="B57" s="8">
         <v>50</v>
       </c>
-      <c r="C57" s="20"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="13" t="s">
         <v>59</v>
       </c>
@@ -1684,7 +1717,7 @@
       <c r="B58" s="8">
         <v>51</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="13" t="s">
         <v>60</v>
       </c>
@@ -1695,7 +1728,7 @@
       <c r="B59" s="8">
         <v>52</v>
       </c>
-      <c r="C59" s="20"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="13" t="s">
         <v>61</v>
       </c>
@@ -1706,7 +1739,7 @@
       <c r="B60" s="8">
         <v>53</v>
       </c>
-      <c r="C60" s="21"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="13" t="s">
         <v>62</v>
       </c>
@@ -1717,7 +1750,7 @@
       <c r="B61" s="8">
         <v>54</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -1730,7 +1763,7 @@
       <c r="B62" s="8">
         <v>55</v>
       </c>
-      <c r="C62" s="20"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="13" t="s">
         <v>65</v>
       </c>
@@ -1741,7 +1774,7 @@
       <c r="B63" s="8">
         <v>56</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="13" t="s">
         <v>66</v>
       </c>
@@ -1752,7 +1785,7 @@
       <c r="B64" s="8">
         <v>57</v>
       </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="13" t="s">
         <v>67</v>
       </c>
@@ -1762,7 +1795,7 @@
       <c r="B65" s="8">
         <v>58</v>
       </c>
-      <c r="C65" s="20"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="13" t="s">
         <v>68</v>
       </c>
@@ -1772,7 +1805,7 @@
       <c r="B66" s="8">
         <v>59</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="13" t="s">
         <v>69</v>
       </c>
@@ -1782,7 +1815,7 @@
       <c r="B67" s="8">
         <v>60</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="13" t="s">
         <v>70</v>
       </c>
@@ -1792,7 +1825,7 @@
       <c r="B68" s="8">
         <v>61</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="13" t="s">
         <v>71</v>
       </c>
@@ -1802,7 +1835,7 @@
       <c r="B69" s="8">
         <v>62</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="24" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -1814,7 +1847,7 @@
       <c r="B70" s="8">
         <v>63</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="4" t="s">
         <v>72</v>
       </c>
@@ -1824,7 +1857,7 @@
       <c r="B71" s="8">
         <v>64</v>
       </c>
-      <c r="C71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="13" t="s">
         <v>73</v>
       </c>
@@ -1834,7 +1867,7 @@
       <c r="B72" s="8">
         <v>65</v>
       </c>
-      <c r="C72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="13" t="s">
         <v>74</v>
       </c>
@@ -1844,7 +1877,7 @@
       <c r="B73" s="8">
         <v>66</v>
       </c>
-      <c r="C73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="13" t="s">
         <v>75</v>
       </c>
@@ -1854,7 +1887,7 @@
       <c r="B74" s="8">
         <v>67</v>
       </c>
-      <c r="C74" s="25"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="13" t="s">
         <v>76</v>
       </c>
@@ -1864,7 +1897,7 @@
       <c r="B75" s="8">
         <v>68</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="24" t="s">
         <v>108</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -1876,7 +1909,7 @@
       <c r="B76" s="8">
         <v>69</v>
       </c>
-      <c r="C76" s="24"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="13" t="s">
         <v>77</v>
       </c>
@@ -1886,7 +1919,7 @@
       <c r="B77" s="8">
         <v>70</v>
       </c>
-      <c r="C77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="13" t="s">
         <v>83</v>
       </c>
@@ -1896,7 +1929,7 @@
       <c r="B78" s="8">
         <v>71</v>
       </c>
-      <c r="C78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="13" t="s">
         <v>78</v>
       </c>
@@ -1906,7 +1939,7 @@
       <c r="B79" s="8">
         <v>72</v>
       </c>
-      <c r="C79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="13" t="s">
         <v>79</v>
       </c>
@@ -1916,7 +1949,7 @@
       <c r="B80" s="8">
         <v>73</v>
       </c>
-      <c r="C80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="13" t="s">
         <v>76</v>
       </c>
@@ -1926,7 +1959,7 @@
       <c r="B81" s="8">
         <v>74</v>
       </c>
-      <c r="C81" s="25"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="13" t="s">
         <v>80</v>
       </c>
@@ -1936,7 +1969,7 @@
       <c r="B82" s="8">
         <v>75</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="24" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="13" t="s">
@@ -1948,7 +1981,7 @@
       <c r="B83" s="8">
         <v>76</v>
       </c>
-      <c r="C83" s="24"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="13" t="s">
         <v>62</v>
       </c>
@@ -1958,7 +1991,7 @@
       <c r="B84" s="8">
         <v>77</v>
       </c>
-      <c r="C84" s="24"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="13" t="s">
         <v>82</v>
       </c>
@@ -1968,7 +2001,7 @@
       <c r="B85" s="8">
         <v>78</v>
       </c>
-      <c r="C85" s="24"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="13" t="s">
         <v>81</v>
       </c>
@@ -1978,7 +2011,7 @@
       <c r="B86" s="8">
         <v>79</v>
       </c>
-      <c r="C86" s="25"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="13" t="s">
         <v>76</v>
       </c>
@@ -1986,7 +2019,7 @@
     </row>
     <row r="87" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B87" s="8"/>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="24" t="s">
         <v>110</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -1998,7 +2031,7 @@
       <c r="B88" s="8">
         <v>80</v>
       </c>
-      <c r="C88" s="24"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="13" t="s">
         <v>85</v>
       </c>
@@ -2008,7 +2041,7 @@
       <c r="B89" s="8">
         <v>81</v>
       </c>
-      <c r="C89" s="25"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="13" t="s">
         <v>87</v>
       </c>
@@ -2018,7 +2051,7 @@
       <c r="B90" s="8">
         <v>82</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="13" t="s">
@@ -2030,7 +2063,7 @@
       <c r="B91" s="8">
         <v>83</v>
       </c>
-      <c r="C91" s="20"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="13" t="s">
         <v>92</v>
       </c>
@@ -2040,7 +2073,7 @@
       <c r="B92" s="8">
         <v>84</v>
       </c>
-      <c r="C92" s="20"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="4" t="s">
         <v>93</v>
       </c>
@@ -2050,7 +2083,7 @@
       <c r="B93" s="8">
         <v>85</v>
       </c>
-      <c r="C93" s="20"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="13" t="s">
         <v>94</v>
       </c>
@@ -2060,7 +2093,7 @@
       <c r="B94" s="8">
         <v>86</v>
       </c>
-      <c r="C94" s="20"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="13" t="s">
         <v>95</v>
       </c>
@@ -2070,7 +2103,7 @@
       <c r="B95" s="8">
         <v>87</v>
       </c>
-      <c r="C95" s="20"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="13" t="s">
         <v>96</v>
       </c>
@@ -2080,7 +2113,7 @@
       <c r="B96" s="8">
         <v>88</v>
       </c>
-      <c r="C96" s="20"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="13" t="s">
         <v>97</v>
       </c>
@@ -2090,7 +2123,7 @@
       <c r="B97" s="8">
         <v>89</v>
       </c>
-      <c r="C97" s="20"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="13" t="s">
         <v>98</v>
       </c>
@@ -2100,7 +2133,7 @@
       <c r="B98" s="8">
         <v>90</v>
       </c>
-      <c r="C98" s="20"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="13" t="s">
         <v>99</v>
       </c>
@@ -2110,7 +2143,7 @@
       <c r="B99" s="8">
         <v>91</v>
       </c>
-      <c r="C99" s="20"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="13" t="s">
         <v>100</v>
       </c>
@@ -2120,7 +2153,7 @@
       <c r="B100" s="8">
         <v>92</v>
       </c>
-      <c r="C100" s="21"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="4" t="s">
         <v>101</v>
       </c>
@@ -2130,7 +2163,7 @@
       <c r="B101" s="8">
         <v>93</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -2142,7 +2175,7 @@
       <c r="B102" s="8">
         <v>94</v>
       </c>
-      <c r="C102" s="22"/>
+      <c r="C102" s="23"/>
       <c r="D102" s="13" t="s">
         <v>92</v>
       </c>
@@ -2152,7 +2185,7 @@
       <c r="B103" s="8">
         <v>95</v>
       </c>
-      <c r="C103" s="22"/>
+      <c r="C103" s="23"/>
       <c r="D103" s="13" t="s">
         <v>103</v>
       </c>
@@ -2162,7 +2195,7 @@
       <c r="B104" s="8">
         <v>96</v>
       </c>
-      <c r="C104" s="22"/>
+      <c r="C104" s="23"/>
       <c r="D104" s="13" t="s">
         <v>104</v>
       </c>
@@ -2172,7 +2205,7 @@
       <c r="B105" s="8">
         <v>97</v>
       </c>
-      <c r="C105" s="22"/>
+      <c r="C105" s="23"/>
       <c r="D105" s="13" t="s">
         <v>105</v>
       </c>
@@ -2182,7 +2215,7 @@
       <c r="B106" s="8">
         <v>98</v>
       </c>
-      <c r="C106" s="22"/>
+      <c r="C106" s="23"/>
       <c r="D106" s="4" t="s">
         <v>93</v>
       </c>
@@ -2192,7 +2225,7 @@
       <c r="B107" s="8">
         <v>99</v>
       </c>
-      <c r="C107" s="22"/>
+      <c r="C107" s="23"/>
       <c r="D107" s="13" t="s">
         <v>94</v>
       </c>
@@ -2202,7 +2235,7 @@
       <c r="B108" s="8">
         <v>100</v>
       </c>
-      <c r="C108" s="22"/>
+      <c r="C108" s="23"/>
       <c r="D108" s="13" t="s">
         <v>106</v>
       </c>
@@ -2212,7 +2245,7 @@
       <c r="B109" s="8">
         <v>101</v>
       </c>
-      <c r="C109" s="22"/>
+      <c r="C109" s="23"/>
       <c r="D109" s="13" t="s">
         <v>95</v>
       </c>
@@ -2222,7 +2255,7 @@
       <c r="B110" s="8">
         <v>102</v>
       </c>
-      <c r="C110" s="22"/>
+      <c r="C110" s="23"/>
       <c r="D110" s="13" t="s">
         <v>96</v>
       </c>
@@ -2232,7 +2265,7 @@
       <c r="B111" s="8">
         <v>103</v>
       </c>
-      <c r="C111" s="22"/>
+      <c r="C111" s="23"/>
       <c r="D111" s="13" t="s">
         <v>97</v>
       </c>
@@ -2242,7 +2275,7 @@
       <c r="B112" s="8">
         <v>104</v>
       </c>
-      <c r="C112" s="22"/>
+      <c r="C112" s="23"/>
       <c r="D112" s="13" t="s">
         <v>98</v>
       </c>
@@ -2252,7 +2285,7 @@
       <c r="B113" s="8">
         <v>105</v>
       </c>
-      <c r="C113" s="22"/>
+      <c r="C113" s="23"/>
       <c r="D113" s="13" t="s">
         <v>99</v>
       </c>
@@ -2262,7 +2295,7 @@
       <c r="B114" s="8">
         <v>106</v>
       </c>
-      <c r="C114" s="22"/>
+      <c r="C114" s="23"/>
       <c r="D114" s="13" t="s">
         <v>100</v>
       </c>
@@ -2272,14 +2305,14 @@
       <c r="B115" s="8">
         <v>107</v>
       </c>
-      <c r="C115" s="22"/>
+      <c r="C115" s="23"/>
       <c r="D115" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E115" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C34:C40"/>
@@ -2287,7 +2320,6 @@
     <mergeCell ref="C101:C115"/>
     <mergeCell ref="C75:C81"/>
     <mergeCell ref="C82:C86"/>
-    <mergeCell ref="C12:C33"/>
     <mergeCell ref="C87:C89"/>
     <mergeCell ref="C41:C48"/>
     <mergeCell ref="C49:C55"/>

--- a/The Battle Cats_TC.xlsx
+++ b/The Battle Cats_TC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA7EE7-0B19-4658-A331-D81606A6B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520C800-0CBA-40A0-9334-FCBDC3600AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
   <si>
     <t>냥코 대전쟁 테스트 케이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,21 +721,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,21 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C399DC24-7DCE-4FAA-9CB5-5462B70B7A25}">
   <dimension ref="B2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F40"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1098,12 +1086,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -1150,7 +1138,7 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1163,7 +1151,7 @@
       <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1162,7 @@
       <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1173,7 @@
       <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1184,7 @@
       <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1212,7 +1200,7 @@
       <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1223,7 +1211,7 @@
       <c r="B14" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1234,7 +1222,7 @@
       <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
@@ -1245,7 +1233,7 @@
       <c r="B16" s="8">
         <v>9</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +1244,7 @@
       <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +1255,7 @@
       <c r="B18" s="8">
         <v>11</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -1278,7 +1266,7 @@
       <c r="B19" s="8">
         <v>12</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1277,7 @@
       <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="13" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1288,7 @@
       <c r="B21" s="8">
         <v>14</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
@@ -1308,13 +1296,11 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="30">
+      <c r="B22" s="17">
         <v>15</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="5"/>
@@ -1324,7 +1310,7 @@
       <c r="B23" s="8">
         <v>16</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="13" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1321,7 @@
       <c r="B24" s="8">
         <v>17</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="13" t="s">
         <v>32</v>
       </c>
@@ -1346,7 +1332,7 @@
       <c r="B25" s="8">
         <v>18</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1357,7 +1343,7 @@
       <c r="B26" s="8">
         <v>19</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1354,7 @@
       <c r="B27" s="8">
         <v>20</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
@@ -1379,7 +1365,7 @@
       <c r="B28" s="8">
         <v>21</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1376,7 @@
       <c r="B29" s="8">
         <v>22</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
@@ -1401,7 +1387,7 @@
       <c r="B30" s="8">
         <v>23</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="13" t="s">
         <v>23</v>
       </c>
@@ -1412,7 +1398,7 @@
       <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="13" t="s">
         <v>88</v>
       </c>
@@ -1423,7 +1409,7 @@
       <c r="B32" s="8">
         <v>25</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="13" t="s">
         <v>89</v>
       </c>
@@ -1434,7 +1420,7 @@
       <c r="B33" s="8">
         <v>26</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1445,7 +1431,7 @@
       <c r="B34" s="8">
         <v>27</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -1458,7 +1444,7 @@
       <c r="B35" s="8">
         <v>28</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="13" t="s">
         <v>34</v>
       </c>
@@ -1469,7 +1455,7 @@
       <c r="B36" s="8">
         <v>29</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="13" t="s">
         <v>35</v>
       </c>
@@ -1480,7 +1466,7 @@
       <c r="B37" s="8">
         <v>30</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="13" t="s">
         <v>84</v>
       </c>
@@ -1491,7 +1477,7 @@
       <c r="B38" s="8">
         <v>31</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="13" t="s">
         <v>50</v>
       </c>
@@ -1502,7 +1488,7 @@
       <c r="B39" s="8">
         <v>32</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="13" t="s">
         <v>36</v>
       </c>
@@ -1513,7 +1499,7 @@
       <c r="B40" s="8">
         <v>33</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="13" t="s">
         <v>38</v>
       </c>
@@ -1524,7 +1510,7 @@
       <c r="B41" s="8">
         <v>34</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -1537,7 +1523,7 @@
       <c r="B42" s="8">
         <v>35</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="13" t="s">
         <v>43</v>
       </c>
@@ -1548,7 +1534,7 @@
       <c r="B43" s="8">
         <v>36</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="13" t="s">
         <v>41</v>
       </c>
@@ -1559,7 +1545,7 @@
       <c r="B44" s="8">
         <v>37</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="13" t="s">
         <v>44</v>
       </c>
@@ -1570,7 +1556,7 @@
       <c r="B45" s="8">
         <v>38</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="13" t="s">
         <v>47</v>
       </c>
@@ -1581,7 +1567,7 @@
       <c r="B46" s="8">
         <v>39</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="13" t="s">
         <v>42</v>
       </c>
@@ -1592,7 +1578,7 @@
       <c r="B47" s="8">
         <v>40</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="13" t="s">
         <v>45</v>
       </c>
@@ -1603,7 +1589,7 @@
       <c r="B48" s="8">
         <v>41</v>
       </c>
-      <c r="C48" s="22"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1614,7 +1600,7 @@
       <c r="B49" s="8">
         <v>42</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -1627,7 +1613,7 @@
       <c r="B50" s="8">
         <v>43</v>
       </c>
-      <c r="C50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="13" t="s">
         <v>51</v>
       </c>
@@ -1638,7 +1624,7 @@
       <c r="B51" s="8">
         <v>44</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="13" t="s">
         <v>52</v>
       </c>
@@ -1649,7 +1635,7 @@
       <c r="B52" s="8">
         <v>45</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="13" t="s">
         <v>53</v>
       </c>
@@ -1660,7 +1646,7 @@
       <c r="B53" s="8">
         <v>46</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="13" t="s">
         <v>55</v>
       </c>
@@ -1671,7 +1657,7 @@
       <c r="B54" s="8">
         <v>47</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="13" t="s">
         <v>54</v>
       </c>
@@ -1682,7 +1668,7 @@
       <c r="B55" s="8">
         <v>48</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="13" t="s">
         <v>62</v>
       </c>
@@ -1693,7 +1679,7 @@
       <c r="B56" s="8">
         <v>49</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -1706,7 +1692,7 @@
       <c r="B57" s="8">
         <v>50</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="13" t="s">
         <v>59</v>
       </c>
@@ -1717,7 +1703,7 @@
       <c r="B58" s="8">
         <v>51</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="13" t="s">
         <v>60</v>
       </c>
@@ -1728,7 +1714,7 @@
       <c r="B59" s="8">
         <v>52</v>
       </c>
-      <c r="C59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="13" t="s">
         <v>61</v>
       </c>
@@ -1739,7 +1725,7 @@
       <c r="B60" s="8">
         <v>53</v>
       </c>
-      <c r="C60" s="22"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="13" t="s">
         <v>62</v>
       </c>
@@ -1750,7 +1736,7 @@
       <c r="B61" s="8">
         <v>54</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -1763,7 +1749,7 @@
       <c r="B62" s="8">
         <v>55</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="13" t="s">
         <v>65</v>
       </c>
@@ -1774,7 +1760,7 @@
       <c r="B63" s="8">
         <v>56</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="13" t="s">
         <v>66</v>
       </c>
@@ -1785,7 +1771,7 @@
       <c r="B64" s="8">
         <v>57</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="13" t="s">
         <v>67</v>
       </c>
@@ -1795,7 +1781,7 @@
       <c r="B65" s="8">
         <v>58</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="13" t="s">
         <v>68</v>
       </c>
@@ -1805,7 +1791,7 @@
       <c r="B66" s="8">
         <v>59</v>
       </c>
-      <c r="C66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="13" t="s">
         <v>69</v>
       </c>
@@ -1815,7 +1801,7 @@
       <c r="B67" s="8">
         <v>60</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="13" t="s">
         <v>70</v>
       </c>
@@ -1825,7 +1811,7 @@
       <c r="B68" s="8">
         <v>61</v>
       </c>
-      <c r="C68" s="22"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="13" t="s">
         <v>71</v>
       </c>
@@ -1835,7 +1821,7 @@
       <c r="B69" s="8">
         <v>62</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="25" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -1847,7 +1833,7 @@
       <c r="B70" s="8">
         <v>63</v>
       </c>
-      <c r="C70" s="25"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="4" t="s">
         <v>72</v>
       </c>
@@ -1857,7 +1843,7 @@
       <c r="B71" s="8">
         <v>64</v>
       </c>
-      <c r="C71" s="25"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="13" t="s">
         <v>73</v>
       </c>
@@ -1867,7 +1853,7 @@
       <c r="B72" s="8">
         <v>65</v>
       </c>
-      <c r="C72" s="25"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="13" t="s">
         <v>74</v>
       </c>
@@ -1877,7 +1863,7 @@
       <c r="B73" s="8">
         <v>66</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="13" t="s">
         <v>75</v>
       </c>
@@ -1887,7 +1873,7 @@
       <c r="B74" s="8">
         <v>67</v>
       </c>
-      <c r="C74" s="26"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="13" t="s">
         <v>76</v>
       </c>
@@ -1897,7 +1883,7 @@
       <c r="B75" s="8">
         <v>68</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -1909,7 +1895,7 @@
       <c r="B76" s="8">
         <v>69</v>
       </c>
-      <c r="C76" s="25"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="13" t="s">
         <v>77</v>
       </c>
@@ -1919,7 +1905,7 @@
       <c r="B77" s="8">
         <v>70</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="13" t="s">
         <v>83</v>
       </c>
@@ -1929,7 +1915,7 @@
       <c r="B78" s="8">
         <v>71</v>
       </c>
-      <c r="C78" s="25"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="13" t="s">
         <v>78</v>
       </c>
@@ -1939,7 +1925,7 @@
       <c r="B79" s="8">
         <v>72</v>
       </c>
-      <c r="C79" s="25"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="13" t="s">
         <v>79</v>
       </c>
@@ -1949,7 +1935,7 @@
       <c r="B80" s="8">
         <v>73</v>
       </c>
-      <c r="C80" s="25"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="13" t="s">
         <v>76</v>
       </c>
@@ -1959,7 +1945,7 @@
       <c r="B81" s="8">
         <v>74</v>
       </c>
-      <c r="C81" s="26"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="13" t="s">
         <v>80</v>
       </c>
@@ -1969,7 +1955,7 @@
       <c r="B82" s="8">
         <v>75</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="13" t="s">
@@ -1981,7 +1967,7 @@
       <c r="B83" s="8">
         <v>76</v>
       </c>
-      <c r="C83" s="25"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="13" t="s">
         <v>62</v>
       </c>
@@ -1991,7 +1977,7 @@
       <c r="B84" s="8">
         <v>77</v>
       </c>
-      <c r="C84" s="25"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="13" t="s">
         <v>82</v>
       </c>
@@ -2001,7 +1987,7 @@
       <c r="B85" s="8">
         <v>78</v>
       </c>
-      <c r="C85" s="25"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="13" t="s">
         <v>81</v>
       </c>
@@ -2011,7 +1997,7 @@
       <c r="B86" s="8">
         <v>79</v>
       </c>
-      <c r="C86" s="26"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="13" t="s">
         <v>76</v>
       </c>
@@ -2019,7 +2005,7 @@
     </row>
     <row r="87" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B87" s="8"/>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="25" t="s">
         <v>110</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -2031,7 +2017,7 @@
       <c r="B88" s="8">
         <v>80</v>
       </c>
-      <c r="C88" s="25"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="13" t="s">
         <v>85</v>
       </c>
@@ -2041,7 +2027,7 @@
       <c r="B89" s="8">
         <v>81</v>
       </c>
-      <c r="C89" s="26"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="13" t="s">
         <v>87</v>
       </c>
@@ -2051,7 +2037,7 @@
       <c r="B90" s="8">
         <v>82</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="13" t="s">
@@ -2063,7 +2049,7 @@
       <c r="B91" s="8">
         <v>83</v>
       </c>
-      <c r="C91" s="21"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="13" t="s">
         <v>92</v>
       </c>
@@ -2073,7 +2059,7 @@
       <c r="B92" s="8">
         <v>84</v>
       </c>
-      <c r="C92" s="21"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="4" t="s">
         <v>93</v>
       </c>
@@ -2083,7 +2069,7 @@
       <c r="B93" s="8">
         <v>85</v>
       </c>
-      <c r="C93" s="21"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="13" t="s">
         <v>94</v>
       </c>
@@ -2093,7 +2079,7 @@
       <c r="B94" s="8">
         <v>86</v>
       </c>
-      <c r="C94" s="21"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="13" t="s">
         <v>95</v>
       </c>
@@ -2103,7 +2089,7 @@
       <c r="B95" s="8">
         <v>87</v>
       </c>
-      <c r="C95" s="21"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="13" t="s">
         <v>96</v>
       </c>
@@ -2113,7 +2099,7 @@
       <c r="B96" s="8">
         <v>88</v>
       </c>
-      <c r="C96" s="21"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="13" t="s">
         <v>97</v>
       </c>
@@ -2123,7 +2109,7 @@
       <c r="B97" s="8">
         <v>89</v>
       </c>
-      <c r="C97" s="21"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="13" t="s">
         <v>98</v>
       </c>
@@ -2133,7 +2119,7 @@
       <c r="B98" s="8">
         <v>90</v>
       </c>
-      <c r="C98" s="21"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="13" t="s">
         <v>99</v>
       </c>
@@ -2143,7 +2129,7 @@
       <c r="B99" s="8">
         <v>91</v>
       </c>
-      <c r="C99" s="21"/>
+      <c r="C99" s="22"/>
       <c r="D99" s="13" t="s">
         <v>100</v>
       </c>
@@ -2153,7 +2139,7 @@
       <c r="B100" s="8">
         <v>92</v>
       </c>
-      <c r="C100" s="22"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="4" t="s">
         <v>101</v>
       </c>
@@ -2163,7 +2149,7 @@
       <c r="B101" s="8">
         <v>93</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -2175,7 +2161,7 @@
       <c r="B102" s="8">
         <v>94</v>
       </c>
-      <c r="C102" s="23"/>
+      <c r="C102" s="24"/>
       <c r="D102" s="13" t="s">
         <v>92</v>
       </c>
@@ -2185,7 +2171,7 @@
       <c r="B103" s="8">
         <v>95</v>
       </c>
-      <c r="C103" s="23"/>
+      <c r="C103" s="24"/>
       <c r="D103" s="13" t="s">
         <v>103</v>
       </c>
@@ -2195,7 +2181,7 @@
       <c r="B104" s="8">
         <v>96</v>
       </c>
-      <c r="C104" s="23"/>
+      <c r="C104" s="24"/>
       <c r="D104" s="13" t="s">
         <v>104</v>
       </c>
@@ -2205,7 +2191,7 @@
       <c r="B105" s="8">
         <v>97</v>
       </c>
-      <c r="C105" s="23"/>
+      <c r="C105" s="24"/>
       <c r="D105" s="13" t="s">
         <v>105</v>
       </c>
@@ -2215,7 +2201,7 @@
       <c r="B106" s="8">
         <v>98</v>
       </c>
-      <c r="C106" s="23"/>
+      <c r="C106" s="24"/>
       <c r="D106" s="4" t="s">
         <v>93</v>
       </c>
@@ -2225,7 +2211,7 @@
       <c r="B107" s="8">
         <v>99</v>
       </c>
-      <c r="C107" s="23"/>
+      <c r="C107" s="24"/>
       <c r="D107" s="13" t="s">
         <v>94</v>
       </c>
@@ -2235,7 +2221,7 @@
       <c r="B108" s="8">
         <v>100</v>
       </c>
-      <c r="C108" s="23"/>
+      <c r="C108" s="24"/>
       <c r="D108" s="13" t="s">
         <v>106</v>
       </c>
@@ -2245,7 +2231,7 @@
       <c r="B109" s="8">
         <v>101</v>
       </c>
-      <c r="C109" s="23"/>
+      <c r="C109" s="24"/>
       <c r="D109" s="13" t="s">
         <v>95</v>
       </c>
@@ -2255,7 +2241,7 @@
       <c r="B110" s="8">
         <v>102</v>
       </c>
-      <c r="C110" s="23"/>
+      <c r="C110" s="24"/>
       <c r="D110" s="13" t="s">
         <v>96</v>
       </c>
@@ -2265,7 +2251,7 @@
       <c r="B111" s="8">
         <v>103</v>
       </c>
-      <c r="C111" s="23"/>
+      <c r="C111" s="24"/>
       <c r="D111" s="13" t="s">
         <v>97</v>
       </c>
@@ -2275,7 +2261,7 @@
       <c r="B112" s="8">
         <v>104</v>
       </c>
-      <c r="C112" s="23"/>
+      <c r="C112" s="24"/>
       <c r="D112" s="13" t="s">
         <v>98</v>
       </c>
@@ -2285,7 +2271,7 @@
       <c r="B113" s="8">
         <v>105</v>
       </c>
-      <c r="C113" s="23"/>
+      <c r="C113" s="24"/>
       <c r="D113" s="13" t="s">
         <v>99</v>
       </c>
@@ -2295,7 +2281,7 @@
       <c r="B114" s="8">
         <v>106</v>
       </c>
-      <c r="C114" s="23"/>
+      <c r="C114" s="24"/>
       <c r="D114" s="13" t="s">
         <v>100</v>
       </c>
@@ -2305,14 +2291,14 @@
       <c r="B115" s="8">
         <v>107</v>
       </c>
-      <c r="C115" s="23"/>
+      <c r="C115" s="24"/>
       <c r="D115" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E115" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C34:C40"/>
@@ -2326,6 +2312,7 @@
     <mergeCell ref="C56:C60"/>
     <mergeCell ref="C61:C68"/>
     <mergeCell ref="C69:C74"/>
+    <mergeCell ref="C12:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/The Battle Cats_TC.xlsx
+++ b/The Battle Cats_TC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520C800-0CBA-40A0-9334-FCBDC3600AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713A74A5-58E7-442D-8568-193C33C21EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
   </bookViews>
@@ -1071,7 +1071,7 @@
   <dimension ref="B2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1079,9 +1079,9 @@
     <col min="1" max="1" width="1.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.8984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
         <v>1</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="8">
         <v>4</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="8">
         <v>6</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="8">
         <v>7</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="8">
         <v>8</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="8">
         <v>9</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="8">
         <v>10</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="8">
         <v>11</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="8">
         <v>13</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="8">
         <v>14</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="17">
         <v>15</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="8">
         <v>16</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="8">
         <v>17</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="8">
         <v>18</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="8">
         <v>20</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="8">
         <v>21</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="8">
         <v>23</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="8">
         <v>24</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="8">
         <v>25</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="8">
         <v>26</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="8">
         <v>27</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="8">
         <v>28</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="8">
         <v>29</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="8">
         <v>30</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="8">
         <v>31</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="8">
         <v>32</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="8">
         <v>33</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="8">
         <v>34</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B42" s="8">
         <v>35</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="2:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="8">
         <v>36</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="8">
         <v>37</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="2:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="8">
         <v>38</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="8">
         <v>40</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="8">
         <v>41</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="8">
         <v>42</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="8">
         <v>43</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="8">
         <v>44</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="8">
         <v>45</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="8">
         <v>46</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="8">
         <v>47</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="8">
         <v>48</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="8">
         <v>50</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="8">
         <v>51</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="8">
         <v>52</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="8">
         <v>53</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="8">
         <v>54</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="8">
         <v>56</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64" s="8">
         <v>57</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="8">
         <v>58</v>
       </c>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="8">
         <v>59</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="8">
         <v>61</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="8">
         <v>62</v>
       </c>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" s="8">
         <v>64</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" s="8">
         <v>65</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" s="8">
         <v>66</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" s="8">
         <v>68</v>
       </c>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" s="8">
         <v>70</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" s="8">
         <v>71</v>
       </c>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" s="8">
         <v>72</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="8">
         <v>74</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="8">
         <v>75</v>
       </c>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="8">
         <v>76</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B84" s="8">
         <v>77</v>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B85" s="8">
         <v>78</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B87" s="8"/>
       <c r="C87" s="25" t="s">
         <v>110</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B88" s="8">
         <v>80</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B89" s="8">
         <v>81</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E89" s="16"/>
     </row>
-    <row r="90" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B90" s="8">
         <v>82</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="E90" s="16"/>
     </row>
-    <row r="91" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B91" s="8">
         <v>83</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E92" s="16"/>
     </row>
-    <row r="93" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B93" s="8">
         <v>85</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="E93" s="16"/>
     </row>
-    <row r="94" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B94" s="8">
         <v>86</v>
       </c>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E94" s="16"/>
     </row>
-    <row r="95" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95" s="8">
         <v>87</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="E95" s="16"/>
     </row>
-    <row r="96" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96" s="8">
         <v>88</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="E96" s="16"/>
     </row>
-    <row r="97" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="8">
         <v>89</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="8">
         <v>90</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="E100" s="16"/>
     </row>
-    <row r="101" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B101" s="8">
         <v>93</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E101" s="16"/>
     </row>
-    <row r="102" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B102" s="8">
         <v>94</v>
       </c>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B103" s="8">
         <v>95</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="E103" s="16"/>
     </row>
-    <row r="104" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B104" s="8">
         <v>96</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="E104" s="16"/>
     </row>
-    <row r="105" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B105" s="8">
         <v>97</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E106" s="16"/>
     </row>
-    <row r="107" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B107" s="8">
         <v>99</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="E107" s="16"/>
     </row>
-    <row r="108" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B108" s="8">
         <v>100</v>
       </c>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B109" s="8">
         <v>101</v>
       </c>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="E109" s="16"/>
     </row>
-    <row r="110" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B110" s="8">
         <v>102</v>
       </c>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E110" s="16"/>
     </row>
-    <row r="111" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B111" s="8">
         <v>103</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="E111" s="16"/>
     </row>
-    <row r="112" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B112" s="8">
         <v>104</v>
       </c>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="E112" s="16"/>
     </row>
-    <row r="113" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B113" s="8">
         <v>105</v>
       </c>

--- a/The Battle Cats_TC.xlsx
+++ b/The Battle Cats_TC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713A74A5-58E7-442D-8568-193C33C21EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD82F9-BBAB-40B1-8B8E-64F68162B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -727,32 +726,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,27 +1070,27 @@
   <dimension ref="B2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="80.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.69921875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -1138,7 +1137,7 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1151,7 +1150,7 @@
       <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +1161,7 @@
       <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1172,7 @@
       <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1183,7 @@
       <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1200,7 +1199,7 @@
       <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1210,7 @@
       <c r="B14" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1222,7 +1221,7 @@
       <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
@@ -1233,7 +1232,7 @@
       <c r="B16" s="8">
         <v>9</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1243,7 @@
       <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1254,7 @@
       <c r="B18" s="8">
         <v>11</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1265,7 @@
       <c r="B19" s="8">
         <v>12</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +1276,7 @@
       <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="13" t="s">
         <v>19</v>
       </c>
@@ -1288,7 +1287,7 @@
       <c r="B21" s="8">
         <v>14</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
@@ -1299,7 +1298,7 @@
       <c r="B22" s="17">
         <v>15</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="18" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1309,7 @@
       <c r="B23" s="8">
         <v>16</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="13" t="s">
         <v>31</v>
       </c>
@@ -1321,7 +1320,7 @@
       <c r="B24" s="8">
         <v>17</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="13" t="s">
         <v>32</v>
       </c>
@@ -1332,7 +1331,7 @@
       <c r="B25" s="8">
         <v>18</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1343,7 +1342,7 @@
       <c r="B26" s="8">
         <v>19</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1354,7 +1353,7 @@
       <c r="B27" s="8">
         <v>20</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1364,7 @@
       <c r="B28" s="8">
         <v>21</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1375,7 @@
       <c r="B29" s="8">
         <v>22</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
@@ -1387,7 +1386,7 @@
       <c r="B30" s="8">
         <v>23</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="13" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1397,7 @@
       <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="13" t="s">
         <v>88</v>
       </c>
@@ -1409,7 +1408,7 @@
       <c r="B32" s="8">
         <v>25</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="13" t="s">
         <v>89</v>
       </c>
@@ -1420,7 +1419,7 @@
       <c r="B33" s="8">
         <v>26</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1431,7 +1430,7 @@
       <c r="B34" s="8">
         <v>27</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -1444,7 +1443,7 @@
       <c r="B35" s="8">
         <v>28</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="13" t="s">
         <v>34</v>
       </c>
@@ -1455,7 +1454,7 @@
       <c r="B36" s="8">
         <v>29</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="13" t="s">
         <v>35</v>
       </c>
@@ -1466,7 +1465,7 @@
       <c r="B37" s="8">
         <v>30</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="13" t="s">
         <v>84</v>
       </c>
@@ -1477,7 +1476,7 @@
       <c r="B38" s="8">
         <v>31</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="13" t="s">
         <v>50</v>
       </c>
@@ -1488,7 +1487,7 @@
       <c r="B39" s="8">
         <v>32</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="13" t="s">
         <v>36</v>
       </c>
@@ -1499,7 +1498,7 @@
       <c r="B40" s="8">
         <v>33</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="13" t="s">
         <v>38</v>
       </c>
@@ -1510,7 +1509,7 @@
       <c r="B41" s="8">
         <v>34</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -1523,7 +1522,7 @@
       <c r="B42" s="8">
         <v>35</v>
       </c>
-      <c r="C42" s="22"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="13" t="s">
         <v>43</v>
       </c>
@@ -1534,7 +1533,7 @@
       <c r="B43" s="8">
         <v>36</v>
       </c>
-      <c r="C43" s="22"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="13" t="s">
         <v>41</v>
       </c>
@@ -1545,7 +1544,7 @@
       <c r="B44" s="8">
         <v>37</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="13" t="s">
         <v>44</v>
       </c>
@@ -1556,7 +1555,7 @@
       <c r="B45" s="8">
         <v>38</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="13" t="s">
         <v>47</v>
       </c>
@@ -1567,7 +1566,7 @@
       <c r="B46" s="8">
         <v>39</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="13" t="s">
         <v>42</v>
       </c>
@@ -1578,7 +1577,7 @@
       <c r="B47" s="8">
         <v>40</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="13" t="s">
         <v>45</v>
       </c>
@@ -1589,7 +1588,7 @@
       <c r="B48" s="8">
         <v>41</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1600,7 +1599,7 @@
       <c r="B49" s="8">
         <v>42</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -1613,7 +1612,7 @@
       <c r="B50" s="8">
         <v>43</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="13" t="s">
         <v>51</v>
       </c>
@@ -1624,7 +1623,7 @@
       <c r="B51" s="8">
         <v>44</v>
       </c>
-      <c r="C51" s="22"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="13" t="s">
         <v>52</v>
       </c>
@@ -1635,7 +1634,7 @@
       <c r="B52" s="8">
         <v>45</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="13" t="s">
         <v>53</v>
       </c>
@@ -1646,7 +1645,7 @@
       <c r="B53" s="8">
         <v>46</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="13" t="s">
         <v>55</v>
       </c>
@@ -1657,7 +1656,7 @@
       <c r="B54" s="8">
         <v>47</v>
       </c>
-      <c r="C54" s="22"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="13" t="s">
         <v>54</v>
       </c>
@@ -1668,7 +1667,7 @@
       <c r="B55" s="8">
         <v>48</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="13" t="s">
         <v>62</v>
       </c>
@@ -1679,7 +1678,7 @@
       <c r="B56" s="8">
         <v>49</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -1692,7 +1691,7 @@
       <c r="B57" s="8">
         <v>50</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="13" t="s">
         <v>59</v>
       </c>
@@ -1703,7 +1702,7 @@
       <c r="B58" s="8">
         <v>51</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="13" t="s">
         <v>60</v>
       </c>
@@ -1714,7 +1713,7 @@
       <c r="B59" s="8">
         <v>52</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="13" t="s">
         <v>61</v>
       </c>
@@ -1725,7 +1724,7 @@
       <c r="B60" s="8">
         <v>53</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="13" t="s">
         <v>62</v>
       </c>
@@ -1736,7 +1735,7 @@
       <c r="B61" s="8">
         <v>54</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -1749,7 +1748,7 @@
       <c r="B62" s="8">
         <v>55</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="13" t="s">
         <v>65</v>
       </c>
@@ -1760,7 +1759,7 @@
       <c r="B63" s="8">
         <v>56</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="13" t="s">
         <v>66</v>
       </c>
@@ -1771,7 +1770,7 @@
       <c r="B64" s="8">
         <v>57</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="13" t="s">
         <v>67</v>
       </c>
@@ -1781,7 +1780,7 @@
       <c r="B65" s="8">
         <v>58</v>
       </c>
-      <c r="C65" s="22"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="13" t="s">
         <v>68</v>
       </c>
@@ -1791,7 +1790,7 @@
       <c r="B66" s="8">
         <v>59</v>
       </c>
-      <c r="C66" s="22"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="13" t="s">
         <v>69</v>
       </c>
@@ -1801,7 +1800,7 @@
       <c r="B67" s="8">
         <v>60</v>
       </c>
-      <c r="C67" s="22"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="13" t="s">
         <v>70</v>
       </c>
@@ -1811,7 +1810,7 @@
       <c r="B68" s="8">
         <v>61</v>
       </c>
-      <c r="C68" s="23"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="13" t="s">
         <v>71</v>
       </c>
@@ -1821,7 +1820,7 @@
       <c r="B69" s="8">
         <v>62</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="23" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -1833,7 +1832,7 @@
       <c r="B70" s="8">
         <v>63</v>
       </c>
-      <c r="C70" s="26"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="4" t="s">
         <v>72</v>
       </c>
@@ -1843,7 +1842,7 @@
       <c r="B71" s="8">
         <v>64</v>
       </c>
-      <c r="C71" s="26"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="13" t="s">
         <v>73</v>
       </c>
@@ -1853,7 +1852,7 @@
       <c r="B72" s="8">
         <v>65</v>
       </c>
-      <c r="C72" s="26"/>
+      <c r="C72" s="24"/>
       <c r="D72" s="13" t="s">
         <v>74</v>
       </c>
@@ -1863,7 +1862,7 @@
       <c r="B73" s="8">
         <v>66</v>
       </c>
-      <c r="C73" s="26"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="13" t="s">
         <v>75</v>
       </c>
@@ -1873,7 +1872,7 @@
       <c r="B74" s="8">
         <v>67</v>
       </c>
-      <c r="C74" s="27"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="13" t="s">
         <v>76</v>
       </c>
@@ -1883,7 +1882,7 @@
       <c r="B75" s="8">
         <v>68</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -1895,7 +1894,7 @@
       <c r="B76" s="8">
         <v>69</v>
       </c>
-      <c r="C76" s="26"/>
+      <c r="C76" s="24"/>
       <c r="D76" s="13" t="s">
         <v>77</v>
       </c>
@@ -1905,7 +1904,7 @@
       <c r="B77" s="8">
         <v>70</v>
       </c>
-      <c r="C77" s="26"/>
+      <c r="C77" s="24"/>
       <c r="D77" s="13" t="s">
         <v>83</v>
       </c>
@@ -1915,7 +1914,7 @@
       <c r="B78" s="8">
         <v>71</v>
       </c>
-      <c r="C78" s="26"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="13" t="s">
         <v>78</v>
       </c>
@@ -1925,7 +1924,7 @@
       <c r="B79" s="8">
         <v>72</v>
       </c>
-      <c r="C79" s="26"/>
+      <c r="C79" s="24"/>
       <c r="D79" s="13" t="s">
         <v>79</v>
       </c>
@@ -1935,7 +1934,7 @@
       <c r="B80" s="8">
         <v>73</v>
       </c>
-      <c r="C80" s="26"/>
+      <c r="C80" s="24"/>
       <c r="D80" s="13" t="s">
         <v>76</v>
       </c>
@@ -1945,7 +1944,7 @@
       <c r="B81" s="8">
         <v>74</v>
       </c>
-      <c r="C81" s="27"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="13" t="s">
         <v>80</v>
       </c>
@@ -1955,7 +1954,7 @@
       <c r="B82" s="8">
         <v>75</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="13" t="s">
@@ -1967,7 +1966,7 @@
       <c r="B83" s="8">
         <v>76</v>
       </c>
-      <c r="C83" s="26"/>
+      <c r="C83" s="24"/>
       <c r="D83" s="13" t="s">
         <v>62</v>
       </c>
@@ -1977,7 +1976,7 @@
       <c r="B84" s="8">
         <v>77</v>
       </c>
-      <c r="C84" s="26"/>
+      <c r="C84" s="24"/>
       <c r="D84" s="13" t="s">
         <v>82</v>
       </c>
@@ -1987,7 +1986,7 @@
       <c r="B85" s="8">
         <v>78</v>
       </c>
-      <c r="C85" s="26"/>
+      <c r="C85" s="24"/>
       <c r="D85" s="13" t="s">
         <v>81</v>
       </c>
@@ -1997,7 +1996,7 @@
       <c r="B86" s="8">
         <v>79</v>
       </c>
-      <c r="C86" s="27"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="13" t="s">
         <v>76</v>
       </c>
@@ -2005,7 +2004,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B87" s="8"/>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="23" t="s">
         <v>110</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -2017,7 +2016,7 @@
       <c r="B88" s="8">
         <v>80</v>
       </c>
-      <c r="C88" s="26"/>
+      <c r="C88" s="24"/>
       <c r="D88" s="13" t="s">
         <v>85</v>
       </c>
@@ -2027,7 +2026,7 @@
       <c r="B89" s="8">
         <v>81</v>
       </c>
-      <c r="C89" s="27"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="13" t="s">
         <v>87</v>
       </c>
@@ -2037,7 +2036,7 @@
       <c r="B90" s="8">
         <v>82</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="13" t="s">
@@ -2049,7 +2048,7 @@
       <c r="B91" s="8">
         <v>83</v>
       </c>
-      <c r="C91" s="22"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="13" t="s">
         <v>92</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="B92" s="8">
         <v>84</v>
       </c>
-      <c r="C92" s="22"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="4" t="s">
         <v>93</v>
       </c>
@@ -2069,7 +2068,7 @@
       <c r="B93" s="8">
         <v>85</v>
       </c>
-      <c r="C93" s="22"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="13" t="s">
         <v>94</v>
       </c>
@@ -2079,7 +2078,7 @@
       <c r="B94" s="8">
         <v>86</v>
       </c>
-      <c r="C94" s="22"/>
+      <c r="C94" s="20"/>
       <c r="D94" s="13" t="s">
         <v>95</v>
       </c>
@@ -2089,7 +2088,7 @@
       <c r="B95" s="8">
         <v>87</v>
       </c>
-      <c r="C95" s="22"/>
+      <c r="C95" s="20"/>
       <c r="D95" s="13" t="s">
         <v>96</v>
       </c>
@@ -2099,7 +2098,7 @@
       <c r="B96" s="8">
         <v>88</v>
       </c>
-      <c r="C96" s="22"/>
+      <c r="C96" s="20"/>
       <c r="D96" s="13" t="s">
         <v>97</v>
       </c>
@@ -2109,7 +2108,7 @@
       <c r="B97" s="8">
         <v>89</v>
       </c>
-      <c r="C97" s="22"/>
+      <c r="C97" s="20"/>
       <c r="D97" s="13" t="s">
         <v>98</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="B98" s="8">
         <v>90</v>
       </c>
-      <c r="C98" s="22"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="13" t="s">
         <v>99</v>
       </c>
@@ -2129,7 +2128,7 @@
       <c r="B99" s="8">
         <v>91</v>
       </c>
-      <c r="C99" s="22"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="13" t="s">
         <v>100</v>
       </c>
@@ -2139,7 +2138,7 @@
       <c r="B100" s="8">
         <v>92</v>
       </c>
-      <c r="C100" s="23"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="4" t="s">
         <v>101</v>
       </c>
@@ -2149,7 +2148,7 @@
       <c r="B101" s="8">
         <v>93</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="22" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -2161,7 +2160,7 @@
       <c r="B102" s="8">
         <v>94</v>
       </c>
-      <c r="C102" s="24"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="13" t="s">
         <v>92</v>
       </c>
@@ -2171,7 +2170,7 @@
       <c r="B103" s="8">
         <v>95</v>
       </c>
-      <c r="C103" s="24"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="13" t="s">
         <v>103</v>
       </c>
@@ -2181,7 +2180,7 @@
       <c r="B104" s="8">
         <v>96</v>
       </c>
-      <c r="C104" s="24"/>
+      <c r="C104" s="22"/>
       <c r="D104" s="13" t="s">
         <v>104</v>
       </c>
@@ -2191,7 +2190,7 @@
       <c r="B105" s="8">
         <v>97</v>
       </c>
-      <c r="C105" s="24"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="13" t="s">
         <v>105</v>
       </c>
@@ -2201,7 +2200,7 @@
       <c r="B106" s="8">
         <v>98</v>
       </c>
-      <c r="C106" s="24"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="4" t="s">
         <v>93</v>
       </c>
@@ -2211,7 +2210,7 @@
       <c r="B107" s="8">
         <v>99</v>
       </c>
-      <c r="C107" s="24"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="13" t="s">
         <v>94</v>
       </c>
@@ -2221,7 +2220,7 @@
       <c r="B108" s="8">
         <v>100</v>
       </c>
-      <c r="C108" s="24"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="13" t="s">
         <v>106</v>
       </c>
@@ -2231,7 +2230,7 @@
       <c r="B109" s="8">
         <v>101</v>
       </c>
-      <c r="C109" s="24"/>
+      <c r="C109" s="22"/>
       <c r="D109" s="13" t="s">
         <v>95</v>
       </c>
@@ -2241,7 +2240,7 @@
       <c r="B110" s="8">
         <v>102</v>
       </c>
-      <c r="C110" s="24"/>
+      <c r="C110" s="22"/>
       <c r="D110" s="13" t="s">
         <v>96</v>
       </c>
@@ -2251,7 +2250,7 @@
       <c r="B111" s="8">
         <v>103</v>
       </c>
-      <c r="C111" s="24"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="13" t="s">
         <v>97</v>
       </c>
@@ -2261,7 +2260,7 @@
       <c r="B112" s="8">
         <v>104</v>
       </c>
-      <c r="C112" s="24"/>
+      <c r="C112" s="22"/>
       <c r="D112" s="13" t="s">
         <v>98</v>
       </c>
@@ -2271,7 +2270,7 @@
       <c r="B113" s="8">
         <v>105</v>
       </c>
-      <c r="C113" s="24"/>
+      <c r="C113" s="22"/>
       <c r="D113" s="13" t="s">
         <v>99</v>
       </c>
@@ -2281,7 +2280,7 @@
       <c r="B114" s="8">
         <v>106</v>
       </c>
-      <c r="C114" s="24"/>
+      <c r="C114" s="22"/>
       <c r="D114" s="13" t="s">
         <v>100</v>
       </c>
@@ -2291,7 +2290,7 @@
       <c r="B115" s="8">
         <v>107</v>
       </c>
-      <c r="C115" s="24"/>
+      <c r="C115" s="22"/>
       <c r="D115" s="4" t="s">
         <v>101</v>
       </c>
